--- a/Document/Data/Config/ServerConfig.xlsx
+++ b/Document/Data/Config/ServerConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\newmr\Desktop\Study\Core\Document\Data\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HavePoop\Desktop\Study\Core\Document\Data\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{933181DF-72B8-4E47-AEEE-714F61A7D27F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E2D284C-C356-4E17-BE36-0824D1137A16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="4095" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9600" yWindow="5535" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ServerConfig" sheetId="2" r:id="rId1"/>
@@ -57,11 +57,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Server</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int16_t</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -444,7 +444,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -464,13 +464,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -489,10 +489,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">

--- a/Document/Data/Config/ServerConfig.xlsx
+++ b/Document/Data/Config/ServerConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HavePoop\Desktop\Study\Core\Document\Data\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E2D284C-C356-4E17-BE36-0824D1137A16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B888E7FA-7E74-43C2-AA79-3F51B74ABE9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="5535" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8565" yWindow="3735" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ServerConfig" sheetId="2" r:id="rId1"/>
@@ -61,7 +61,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>int16_t</t>
+    <t>uint8_t</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -444,7 +444,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -503,7 +503,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="2">
-        <v>1000</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Document/Data/Config/ServerConfig.xlsx
+++ b/Document/Data/Config/ServerConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HavePoop\Desktop\Study\Core\Document\Data\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B888E7FA-7E74-43C2-AA79-3F51B74ABE9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07E7BFF9-870E-4745-9D15-C77BAFC5CDFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8565" yWindow="3735" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9600" yWindow="3770" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ServerConfig" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,6 +61,10 @@
   </si>
   <si>
     <t>uint8_t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CountryID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -441,28 +444,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2731530C-0039-42AC-944F-DD348182ED49}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.875" style="1" customWidth="1"/>
-    <col min="3" max="8" width="15" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="18.5" style="1" customWidth="1"/>
-    <col min="11" max="11" width="21.875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="16.25" style="1" customWidth="1"/>
-    <col min="13" max="13" width="10.375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.125" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="1"/>
+    <col min="1" max="2" width="15.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" style="1" customWidth="1"/>
+    <col min="4" max="9" width="15" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18.58203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="18.5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="21.83203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="16.25" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.33203125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="13.58203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.08203125" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
@@ -472,19 +475,25 @@
       <c r="C1" s="5" t="s">
         <v>5</v>
       </c>
+      <c r="D1" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -494,8 +503,11 @@
       <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
+      <c r="D3" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -503,6 +515,9 @@
         <v>1</v>
       </c>
       <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2">
         <v>1</v>
       </c>
     </row>
